--- a/运得易账本.xlsx
+++ b/运得易账本.xlsx
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值人：邓忠明</t>
+    <t>充值人：邓忠明xxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/运得易账本.xlsx
+++ b/运得易账本.xlsx
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值人：邓忠明xxxx</t>
+    <t>充值人：邓忠明xxxx123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/运得易账本.xlsx
+++ b/运得易账本.xlsx
@@ -30,11 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员：向昌贵</t>
+    <t>充值人：邓忠明xxxx123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值人：邓忠明xxxx123</t>
+    <t>管理员：向昌贵1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/运得易账本.xlsx
+++ b/运得易账本.xlsx
@@ -30,11 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员：向昌贵</t>
+    <t>充值人：邓忠明xxxx123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值人：邓忠明xxxx123</t>
+    <t>管理员：向昌贵2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
